--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H2">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I2">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J2">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.212685537419092</v>
+        <v>0.2423163333333333</v>
       </c>
       <c r="N2">
-        <v>0.212685537419092</v>
+        <v>0.726949</v>
       </c>
       <c r="O2">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972225</v>
       </c>
       <c r="P2">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972224</v>
       </c>
       <c r="Q2">
-        <v>5.80105815129936</v>
+        <v>6.901716889018776</v>
       </c>
       <c r="R2">
-        <v>5.80105815129936</v>
+        <v>62.11545200116899</v>
       </c>
       <c r="S2">
-        <v>0.01635097866696647</v>
+        <v>0.01796016470503996</v>
       </c>
       <c r="T2">
-        <v>0.01635097866696647</v>
+        <v>0.01796016470503996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H3">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I3">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J3">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.17577244321503</v>
+        <v>2.274826333333333</v>
       </c>
       <c r="N3">
-        <v>2.17577244321503</v>
+        <v>6.824479</v>
       </c>
       <c r="O3">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432592</v>
       </c>
       <c r="P3">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432591</v>
       </c>
       <c r="Q3">
-        <v>59.34480839763985</v>
+        <v>64.7921958391221</v>
       </c>
       <c r="R3">
-        <v>59.34480839763985</v>
+        <v>583.1297625520989</v>
       </c>
       <c r="S3">
-        <v>0.1672704652835926</v>
+        <v>0.1686071056787841</v>
       </c>
       <c r="T3">
-        <v>0.1672704652835926</v>
+        <v>0.1686071056787841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2752826623491</v>
+        <v>28.48226033333333</v>
       </c>
       <c r="H4">
-        <v>27.2752826623491</v>
+        <v>85.44678099999999</v>
       </c>
       <c r="I4">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164657</v>
       </c>
       <c r="J4">
-        <v>0.2070446906413405</v>
+        <v>0.2101651977164658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.304678142635792</v>
+        <v>0.3183803333333333</v>
       </c>
       <c r="N4">
-        <v>0.304678142635792</v>
+        <v>0.955141</v>
       </c>
       <c r="O4">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="P4">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="Q4">
-        <v>8.310182461430744</v>
+        <v>9.068191539013442</v>
       </c>
       <c r="R4">
-        <v>8.310182461430744</v>
+        <v>81.61372385112099</v>
       </c>
       <c r="S4">
-        <v>0.02342324669078136</v>
+        <v>0.02359792733264173</v>
       </c>
       <c r="T4">
-        <v>0.02342324669078136</v>
+        <v>0.02359792733264173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H5">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I5">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J5">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.212685537419092</v>
+        <v>0.2423163333333333</v>
       </c>
       <c r="N5">
-        <v>0.212685537419092</v>
+        <v>0.726949</v>
       </c>
       <c r="O5">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972225</v>
       </c>
       <c r="P5">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972224</v>
       </c>
       <c r="Q5">
-        <v>17.74774934415815</v>
+        <v>20.22156222224211</v>
       </c>
       <c r="R5">
-        <v>17.74774934415815</v>
+        <v>181.994060000179</v>
       </c>
       <c r="S5">
-        <v>0.05002416168643278</v>
+        <v>0.0526220640377957</v>
       </c>
       <c r="T5">
-        <v>0.05002416168643278</v>
+        <v>0.05262206403779569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H6">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I6">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J6">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.17577244321503</v>
+        <v>2.274826333333333</v>
       </c>
       <c r="N6">
-        <v>2.17577244321503</v>
+        <v>6.824479</v>
       </c>
       <c r="O6">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432592</v>
       </c>
       <c r="P6">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432591</v>
       </c>
       <c r="Q6">
-        <v>181.5594253407876</v>
+        <v>189.8367378356455</v>
       </c>
       <c r="R6">
-        <v>181.5594253407876</v>
+        <v>1708.530640520809</v>
       </c>
       <c r="S6">
-        <v>0.5117470318529672</v>
+        <v>0.4940073801086348</v>
       </c>
       <c r="T6">
-        <v>0.5117470318529672</v>
+        <v>0.4940073801086348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>83.44596233258029</v>
+        <v>83.45109033333334</v>
       </c>
       <c r="H7">
-        <v>83.44596233258029</v>
+        <v>250.353271</v>
       </c>
       <c r="I7">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="J7">
-        <v>0.6334322423087967</v>
+        <v>0.6157697701763504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.304678142635792</v>
+        <v>0.3183803333333333</v>
       </c>
       <c r="N7">
-        <v>0.304678142635792</v>
+        <v>0.955141</v>
       </c>
       <c r="O7">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="P7">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="Q7">
-        <v>25.42416081394683</v>
+        <v>26.56918595735678</v>
       </c>
       <c r="R7">
-        <v>25.42416081394683</v>
+        <v>239.122673616211</v>
       </c>
       <c r="S7">
-        <v>0.07166104876939665</v>
+        <v>0.06914032602991987</v>
       </c>
       <c r="T7">
-        <v>0.07166104876939665</v>
+        <v>0.06914032602991987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H8">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I8">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J8">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.212685537419092</v>
+        <v>0.2423163333333333</v>
       </c>
       <c r="N8">
-        <v>0.212685537419092</v>
+        <v>0.726949</v>
       </c>
       <c r="O8">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972225</v>
       </c>
       <c r="P8">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972224</v>
       </c>
       <c r="Q8">
-        <v>2.990186932361686</v>
+        <v>3.581751306393222</v>
       </c>
       <c r="R8">
-        <v>2.990186932361686</v>
+        <v>32.235761757539</v>
       </c>
       <c r="S8">
-        <v>0.008428200763741105</v>
+        <v>0.009320701563065708</v>
       </c>
       <c r="T8">
-        <v>0.008428200763741105</v>
+        <v>0.009320701563065708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H9">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I9">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J9">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.17577244321503</v>
+        <v>2.274826333333333</v>
       </c>
       <c r="N9">
-        <v>2.17577244321503</v>
+        <v>6.824479</v>
       </c>
       <c r="O9">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432592</v>
       </c>
       <c r="P9">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432591</v>
       </c>
       <c r="Q9">
-        <v>30.58960381812132</v>
+        <v>33.62489882192989</v>
       </c>
       <c r="R9">
-        <v>30.58960381812132</v>
+        <v>302.624089397369</v>
       </c>
       <c r="S9">
-        <v>0.08622046985497399</v>
+        <v>0.08750123059858271</v>
       </c>
       <c r="T9">
-        <v>0.08622046985497399</v>
+        <v>0.08750123059858271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.0591925931926</v>
+        <v>14.78130366666667</v>
       </c>
       <c r="H10">
-        <v>14.0591925931926</v>
+        <v>44.343911</v>
       </c>
       <c r="I10">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779874</v>
       </c>
       <c r="J10">
-        <v>0.1067223103481446</v>
+        <v>0.1090684366779875</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.304678142635792</v>
+        <v>0.3183803333333333</v>
       </c>
       <c r="N10">
-        <v>0.304678142635792</v>
+        <v>0.955141</v>
       </c>
       <c r="O10">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="P10">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="Q10">
-        <v>4.283528686252805</v>
+        <v>4.706076388494555</v>
       </c>
       <c r="R10">
-        <v>4.283528686252805</v>
+        <v>42.354687496451</v>
       </c>
       <c r="S10">
-        <v>0.01207363972942945</v>
+        <v>0.01224650451633903</v>
       </c>
       <c r="T10">
-        <v>0.01207363972942945</v>
+        <v>0.01224650451633903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H11">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I11">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J11">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.212685537419092</v>
+        <v>0.2423163333333333</v>
       </c>
       <c r="N11">
-        <v>0.212685537419092</v>
+        <v>0.726949</v>
       </c>
       <c r="O11">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972225</v>
       </c>
       <c r="P11">
-        <v>0.07897318504675378</v>
+        <v>0.08545736829972224</v>
       </c>
       <c r="Q11">
-        <v>1.479392005225941</v>
+        <v>2.134454730262222</v>
       </c>
       <c r="R11">
-        <v>1.479392005225941</v>
+        <v>19.21009257236</v>
       </c>
       <c r="S11">
-        <v>0.004169843929613425</v>
+        <v>0.005554437993820881</v>
       </c>
       <c r="T11">
-        <v>0.004169843929613425</v>
+        <v>0.005554437993820881</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H12">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I12">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J12">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.17577244321503</v>
+        <v>2.274826333333333</v>
       </c>
       <c r="N12">
-        <v>2.17577244321503</v>
+        <v>6.824479</v>
       </c>
       <c r="O12">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432592</v>
       </c>
       <c r="P12">
-        <v>0.8078954585382343</v>
+        <v>0.8022598770432591</v>
       </c>
       <c r="Q12">
-        <v>15.13417600812516</v>
+        <v>20.03791391572889</v>
       </c>
       <c r="R12">
-        <v>15.13417600812516</v>
+        <v>180.34122524156</v>
       </c>
       <c r="S12">
-        <v>0.04265749154670046</v>
+        <v>0.05214416065725757</v>
       </c>
       <c r="T12">
-        <v>0.04265749154670046</v>
+        <v>0.05214416065725758</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.9557715262549</v>
+        <v>8.808546666666667</v>
       </c>
       <c r="H13">
-        <v>6.9557715262549</v>
+        <v>26.42564</v>
       </c>
       <c r="I13">
-        <v>0.05280075670171831</v>
+        <v>0.0649965954291964</v>
       </c>
       <c r="J13">
-        <v>0.05280075670171831</v>
+        <v>0.06499659542919642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.304678142635792</v>
+        <v>0.3183803333333333</v>
       </c>
       <c r="N13">
-        <v>0.304678142635792</v>
+        <v>0.955141</v>
       </c>
       <c r="O13">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="P13">
-        <v>0.1131313564150119</v>
+        <v>0.1122827546570186</v>
       </c>
       <c r="Q13">
-        <v>2.119271549218271</v>
+        <v>2.804468023915555</v>
       </c>
       <c r="R13">
-        <v>2.119271549218271</v>
+        <v>25.24021221524</v>
       </c>
       <c r="S13">
-        <v>0.005973421225404421</v>
+        <v>0.007297996778117956</v>
       </c>
       <c r="T13">
-        <v>0.005973421225404421</v>
+        <v>0.007297996778117957</v>
       </c>
     </row>
   </sheetData>
